--- a/biology/Médecine/Guaiazulène/Guaiazulène.xlsx
+++ b/biology/Médecine/Guaiazulène/Guaiazulène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guaiazul%C3%A8ne</t>
+          <t>Guaiazulène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le guaiazulène, ou azulon ou encore 1,4-diméthyl-7-isopropylazulène, est un hydrocarbure dérivé de l'azulène. Il se présente sous la forme de cristaux bleu foncé.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guaiazul%C3%A8ne</t>
+          <t>Guaiazulène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le guaiazulène a un point de fusion relativement bas, ce qui peut poser des problèmes lors de son utilisation en synthèse. Tout comme son composé voisin de même couleur, l'azulène, le guaiazulène a une répartition inégale de ses électrons entre le cycle à sept atomes et celui à cinq. Pour obéir à la règle de Hückel, le cycle de sept atomes tente de transférer un électron à celui de cinq. Même s'il est incomplet, ce transfert d'électron crée un moment dipolaire d'environ 1 Debye, chose assez singulière pour un hydrocarbure. Le cycle de cinq atomes acquiert ainsi une charge partielle négative, ce qui en fait une zone privilégiée pour une substitution électrophile aromatique.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Guaiazul%C3%A8ne</t>
+          <t>Guaiazulène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le guaiazulène est utilisé comme colorant. Il est aussi un élément commun de produits cosmétiques, shampooings et produits de soins de la peau, associé à d'autres produits adoucisseurs de la peau comme l'allantoïne.
 Le guaiazulène a des applications en tant que médicament anti-ulcéreux et peut servir de colorant volatil (avec un taux d'évaporation connu) afin d'indiquer la limite entre les zones où un produit (insecticide, lotion solaire, etc.) a été appliqué et celles où il ne l'a pas été.
